--- a/Feature-Analysis/Resize Feature/s_05_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_05_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.834212963</v>
+        <v>738157.834212963</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.83537037042</v>
+        <v>738157.83537037042</v>
       </c>
       <c r="C3" s="0">
         <v>100.00000074505806</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.83537037042</v>
+        <v>738157.83537037042</v>
       </c>
       <c r="C4" s="0">
         <v>100.00000074505806</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.83537037042</v>
+        <v>738157.83537037042</v>
       </c>
       <c r="C5" s="0">
         <v>100.00000074505806</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.83537037042</v>
+        <v>738157.83537037042</v>
       </c>
       <c r="C6" s="0">
         <v>100.00000074505806</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.8357638889</v>
+        <v>738157.8357638889</v>
       </c>
       <c r="C7" s="0">
         <v>133.99999737739563</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.83598379628</v>
+        <v>738157.83598379628</v>
       </c>
       <c r="C8" s="0">
         <v>152.99999490380287</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.83627314819</v>
+        <v>738157.83627314819</v>
       </c>
       <c r="C9" s="0">
         <v>178.00000011920929</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.83682870376</v>
+        <v>738157.83682870376</v>
       </c>
       <c r="C10" s="0">
         <v>226.00000128149986</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.83682870376</v>
+        <v>738157.83682870376</v>
       </c>
       <c r="C11" s="0">
         <v>226.00000128149986</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.83707175928</v>
+        <v>738157.83707175928</v>
       </c>
       <c r="C12" s="0">
         <v>246.99999801814556</v>
@@ -9332,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.8378935185</v>
+        <v>738157.8378935185</v>
       </c>
       <c r="C13" s="0">
         <v>317.99999512732029</v>
@@ -10027,7 +10027,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.8378935185</v>
+        <v>738157.8378935185</v>
       </c>
       <c r="C14" s="0">
         <v>317.99999512732029</v>
@@ -10722,7 +10722,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.8378935185</v>
+        <v>738157.8378935185</v>
       </c>
       <c r="C15" s="0">
         <v>317.99999512732029</v>
@@ -11417,7 +11417,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.83815972228</v>
+        <v>738157.83815972228</v>
       </c>
       <c r="C16" s="0">
         <v>341.00000113248825</v>
@@ -12112,7 +12112,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.8384606482</v>
+        <v>738157.8384606482</v>
       </c>
       <c r="C17" s="0">
         <v>367.00000092387199</v>
@@ -12807,7 +12807,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.83881944441</v>
+        <v>738157.83881944441</v>
       </c>
       <c r="C18" s="0">
         <v>397.99999371170998</v>
@@ -13502,7 +13502,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.8390972222</v>
+        <v>738157.8390972222</v>
       </c>
       <c r="C19" s="0">
         <v>421.99999429285526</v>
@@ -14197,7 +14197,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.83934027783</v>
+        <v>738157.83934027783</v>
       </c>
       <c r="C20" s="0">
         <v>443.00000108778477</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.83958333335</v>
+        <v>738157.83958333335</v>
       </c>
       <c r="C21" s="0">
         <v>463.99999782443047</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.83984953701</v>
+        <v>738157.83984953701</v>
       </c>
       <c r="C22" s="0">
         <v>486.99999377131462</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.84013888892</v>
+        <v>738157.84013888892</v>
       </c>
       <c r="C23" s="0">
         <v>511.99999898672104</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.84046296298</v>
+        <v>738157.84046296298</v>
       </c>
       <c r="C24" s="0">
         <v>539.99999798834324</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.8407060185</v>
+        <v>738157.8407060185</v>
       </c>
       <c r="C25" s="0">
         <v>560.99999472498894</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.84097222227</v>
+        <v>738157.84097222227</v>
       </c>
       <c r="C26" s="0">
         <v>584.0000007301569</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.84130787035</v>
+        <v>738157.84130787035</v>
       </c>
       <c r="C27" s="0">
         <v>612.99999430775642</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.84156249999</v>
+        <v>738157.84156249999</v>
       </c>
       <c r="C28" s="0">
         <v>634.99999567866325</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.84187500004</v>
+        <v>738157.84187500004</v>
       </c>
       <c r="C29" s="0">
         <v>662.00000010430813</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.84228009265</v>
+        <v>738157.84228009265</v>
       </c>
       <c r="C30" s="0">
         <v>697.00000137090683</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.84239583334</v>
+        <v>738157.84239583334</v>
       </c>
       <c r="C31" s="0">
         <v>706.99999742209911</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.84271990741</v>
+        <v>738157.84271990741</v>
       </c>
       <c r="C32" s="0">
         <v>734.99999642372131</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.84347222222</v>
+        <v>738157.84347222222</v>
       </c>
       <c r="C33" s="0">
         <v>799.99999590218067</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.84347222222</v>
+        <v>738157.84347222222</v>
       </c>
       <c r="C34" s="0">
         <v>799.99999590218067</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.84373842587</v>
+        <v>738157.84373842587</v>
       </c>
       <c r="C35" s="0">
         <v>822.99999184906483</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.84381944442</v>
+        <v>738157.84381944442</v>
       </c>
       <c r="C36" s="0">
         <v>829.99999411404133</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.84406250005</v>
+        <v>738157.84406250005</v>
       </c>
       <c r="C37" s="0">
         <v>851.00000090897083</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.84437499999</v>
+        <v>738157.84437499999</v>
       </c>
       <c r="C38" s="0">
         <v>877.9999952763319</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.84465277777</v>
+        <v>738157.84465277777</v>
       </c>
       <c r="C39" s="0">
         <v>901.99999585747719</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.84498842596</v>
+        <v>738157.84498842596</v>
       </c>
       <c r="C40" s="0">
         <v>930.99999949336052</v>
